--- a/run_results/performance_summary.xlsx
+++ b/run_results/performance_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7IS2_ArtificialIntelligence\Assignments\Assignment3\code\run_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD238F0D-E87F-4B34-94AE-FE69E7CF7CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A847E-42A2-485B-A32E-998997A5AA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="performance_summary" sheetId="1" r:id="rId1"/>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1309,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>2</v>
@@ -1456,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A22EF9-124C-4B46-8E69-6658F013A31C}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:G4"/>
     </sheetView>
   </sheetViews>
